--- a/public/Data_Cracks and Potholes (1).xlsx
+++ b/public/Data_Cracks and Potholes (1).xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://protivitimf-my.sharepoint.com/personal/rahul_buttan_protivitiglobal_in/Documents/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hariv\Desktop\leaf\my-vite-app\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="198" documentId="8_{A43A1484-8AEB-4CA0-A77C-F9188B8E033C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E559B4A7-AEA5-43FA-92C3-43090FA9573F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1199A0C4-18FF-4963-A773-44BD104D9760}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{B467F67D-8F37-4A99-A002-C9E06355F6C0}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{B467F67D-8F37-4A99-A002-C9E06355F6C0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,8 +30,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -39,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="33">
   <si>
     <t>S.No</t>
   </si>
@@ -135,6 +133,9 @@
   </si>
   <si>
     <t>Cost of repairing</t>
+  </si>
+  <si>
+    <t>https://images.squarespace-cdn.com/content/v1/573365789f726693272dc91a/1704992146415-CI272VYXPALWT52IGLUB/AdobeStock_201419293.jpeg?format=1500w</t>
   </si>
 </sst>
 </file>
@@ -226,10 +227,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -551,23 +548,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35CE7708-178B-4824-B67D-19590983A603}">
   <dimension ref="A1:M52"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="H1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="L1" workbookViewId="0">
       <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="44.140625" customWidth="1"/>
-    <col min="6" max="6" width="22.42578125" customWidth="1"/>
-    <col min="7" max="12" width="28.140625" customWidth="1"/>
+    <col min="1" max="1" width="5.265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.1328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="44.1328125" customWidth="1"/>
+    <col min="6" max="6" width="22.3984375" customWidth="1"/>
+    <col min="7" max="12" width="28.1328125" customWidth="1"/>
     <col min="13" max="13" width="142" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -608,7 +605,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -645,9 +642,11 @@
       <c r="L2" s="2">
         <v>320.5</v>
       </c>
-      <c r="M2" s="3"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M2" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -686,7 +685,7 @@
       </c>
       <c r="M3" s="3"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -725,7 +724,7 @@
       </c>
       <c r="M4" s="3"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -764,7 +763,7 @@
       </c>
       <c r="M5" s="3"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -803,7 +802,7 @@
       </c>
       <c r="M6" s="3"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -842,7 +841,7 @@
       </c>
       <c r="M7" s="3"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -881,7 +880,7 @@
       </c>
       <c r="M8" s="3"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -920,7 +919,7 @@
       </c>
       <c r="M9" s="3"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -959,7 +958,7 @@
       </c>
       <c r="M10" s="3"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -998,7 +997,7 @@
       </c>
       <c r="M11" s="3"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -1037,7 +1036,7 @@
       </c>
       <c r="M12" s="4"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -1076,7 +1075,7 @@
       </c>
       <c r="M13" s="4"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -1115,7 +1114,7 @@
       </c>
       <c r="M14" s="4"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -1154,7 +1153,7 @@
       </c>
       <c r="M15" s="4"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -1193,7 +1192,7 @@
       </c>
       <c r="M16" s="4"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -1232,7 +1231,7 @@
       </c>
       <c r="M17" s="4"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -1271,7 +1270,7 @@
       </c>
       <c r="M18" s="4"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -1310,7 +1309,7 @@
       </c>
       <c r="M19" s="4"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -1349,7 +1348,7 @@
       </c>
       <c r="M20" s="4"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -1388,7 +1387,7 @@
       </c>
       <c r="M21" s="4"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -1427,7 +1426,7 @@
       </c>
       <c r="M22" s="4"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -1466,7 +1465,7 @@
       </c>
       <c r="M23" s="4"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -1505,7 +1504,7 @@
       </c>
       <c r="M24" s="4"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -1544,7 +1543,7 @@
       </c>
       <c r="M25" s="4"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -1583,7 +1582,7 @@
       </c>
       <c r="M26" s="4"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -1622,7 +1621,7 @@
       </c>
       <c r="M27" s="4"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -1661,7 +1660,7 @@
       </c>
       <c r="M28" s="4"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -1700,7 +1699,7 @@
       </c>
       <c r="M29" s="4"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -1739,7 +1738,7 @@
       </c>
       <c r="M30" s="4"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -1778,7 +1777,7 @@
       </c>
       <c r="M31" s="4"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -1817,7 +1816,7 @@
       </c>
       <c r="M32" s="4"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -1856,7 +1855,7 @@
       </c>
       <c r="M33" s="4"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -1895,7 +1894,7 @@
       </c>
       <c r="M34" s="4"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -1934,7 +1933,7 @@
       </c>
       <c r="M35" s="4"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -1973,7 +1972,7 @@
       </c>
       <c r="M36" s="4"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -2012,7 +2011,7 @@
       </c>
       <c r="M37" s="4"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -2051,7 +2050,7 @@
       </c>
       <c r="M38" s="4"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -2090,7 +2089,7 @@
       </c>
       <c r="M39" s="4"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -2129,7 +2128,7 @@
       </c>
       <c r="M40" s="4"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -2168,7 +2167,7 @@
       </c>
       <c r="M41" s="4"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -2207,7 +2206,7 @@
       </c>
       <c r="M42" s="4"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -2246,7 +2245,7 @@
       </c>
       <c r="M43" s="4"/>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A44" s="2">
         <v>43</v>
       </c>
@@ -2285,7 +2284,7 @@
       </c>
       <c r="M44" s="4"/>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A45" s="2">
         <v>44</v>
       </c>
@@ -2324,7 +2323,7 @@
       </c>
       <c r="M45" s="4"/>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A46" s="2">
         <v>45</v>
       </c>
@@ -2363,7 +2362,7 @@
       </c>
       <c r="M46" s="4"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A47" s="2">
         <v>46</v>
       </c>
@@ -2402,7 +2401,7 @@
       </c>
       <c r="M47" s="4"/>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A48" s="2">
         <v>47</v>
       </c>
@@ -2441,7 +2440,7 @@
       </c>
       <c r="M48" s="4"/>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A49" s="2">
         <v>48</v>
       </c>
@@ -2480,7 +2479,7 @@
       </c>
       <c r="M49" s="4"/>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A50" s="2">
         <v>49</v>
       </c>
@@ -2519,7 +2518,7 @@
       </c>
       <c r="M50" s="4"/>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A51" s="2">
         <v>50</v>
       </c>
@@ -2558,7 +2557,7 @@
       </c>
       <c r="M51" s="4"/>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A52" s="2">
         <v>51</v>
       </c>
